--- a/Data/Student.xlsx
+++ b/Data/Student.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldi01\Documents\UiPath\RoboticEnterpriseFramework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BO200921\Documents\UiPath\REF-TEST\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EBB0E8-6425-40D0-8505-39CB9A21474F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2235" windowWidth="15675" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2235" windowWidth="15675" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,22 +66,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하준1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도윤1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서준1</t>
+    <t>준하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,11 +399,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
